--- a/data/2020-07-27/texas.xlsx
+++ b/data/2020-07-27/texas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\Morning updates\072720\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F707CCD-144C-4BF8-B509-57829B30FAFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C5BEF4C8-9586-4559-B136-04E585E8C3F5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="9683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1321,6 +1321,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1336,8 +1338,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1474,30 +1474,30 @@
   <dimension ref="A1:C260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G260" sqref="G260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>329</v>
       </c>
       <c r="B1" s="14"/>
     </row>
-    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>330</v>
       </c>
       <c r="B2" s="14"/>
     </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>86</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>93</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>97</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>98</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>110</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>119</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>120</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>121</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>122</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>123</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>124</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>125</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>126</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>127</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>128</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>129</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>130</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>131</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>134</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>135</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>136</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>137</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>138</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>139</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>140</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>141</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>142</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>143</v>
       </c>
@@ -3067,10 +3067,10 @@
         <v>76</v>
       </c>
       <c r="C145" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>144</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>145</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>146</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>147</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>148</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>149</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>150</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>151</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>152</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>153</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>154</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>155</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>156</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>157</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>158</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>159</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>160</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>161</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>162</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>163</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>164</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>165</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>166</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>167</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>168</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>169</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>170</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>171</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>172</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>173</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>174</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>175</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>176</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>177</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>178</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>179</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>180</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>181</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>182</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>183</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>184</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>185</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>186</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>187</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>188</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>189</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>190</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>191</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>192</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>193</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>194</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>195</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>196</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>197</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>198</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>199</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>200</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>201</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>202</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>203</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>204</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>205</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>206</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>207</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>208</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>209</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>210</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>211</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>212</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>213</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>214</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>215</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>216</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>217</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>218</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>219</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>220</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>221</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>222</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>223</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>224</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>225</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>226</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>227</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>228</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>229</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>230</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>231</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>232</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>233</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>234</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>235</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>236</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>237</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>238</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>239</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>240</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>241</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>242</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>243</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>244</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>245</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>246</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>247</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>248</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>249</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>250</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>251</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>252</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>253</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>254</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>255</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
         <v>312</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>256</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>5713</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="43.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4341,21 +4341,21 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>316</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>317</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>43.341186682</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>318</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>54.792609585000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>312</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>1.8662037324</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>256</v>
       </c>
@@ -4410,26 +4410,26 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-    </row>
-    <row r="10" spans="1:3" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+    </row>
+    <row r="10" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+    </row>
+    <row r="11" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4453,21 +4453,21 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>320</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>321</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>2.1204042408000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>322</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>12.635625271</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>323</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>40.309380619000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>324</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>0.47120094239999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>325</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>25.916051832000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>312</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>18.547337095</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>256</v>
       </c>
@@ -4555,26 +4555,26 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-    </row>
-    <row r="14" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4598,21 +4598,21 @@
       <selection pane="bottomLeft" activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>297</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>300</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>3.5007876799999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>301</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>1.7503938399999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>302</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>0.14003150710000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>303</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>0.82268510409999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>304</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>2.1179765446999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>305</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>5.5137405916000004</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>306</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>11.097496937000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>307</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>9.3295991598000008</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>308</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>11.552599335</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>309</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>12.550323822999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>310</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>12.287764747000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>311</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>34.535270435999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>312</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>256</v>
       </c>
@@ -4777,29 +4777,29 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="11.65" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>340</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
     </row>
-    <row r="20" spans="1:3" s="22" customFormat="1" ht="11.65" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>352</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:3" ht="11.65" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
     </row>
-    <row r="22" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+    <row r="22" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4821,21 +4821,21 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>316</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>317</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>40.294066164999997</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>318</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>59.705933835000003</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>312</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>256</v>
       </c>
@@ -4890,22 +4890,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="11.65" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>340</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:3" ht="11.65" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>352</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+    <row r="11" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
     </row>
@@ -4928,21 +4928,21 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>320</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>321</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>2.5730789428</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>322</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>14.108174339</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>323</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>47.348153334999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>324</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>0.80518116579999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>325</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>35.112900402999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>312</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>5.2511815199999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>256</v>
       </c>
@@ -5030,22 +5030,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="11.65" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>340</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:3" ht="11.65" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>352</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
     </row>
@@ -5063,51 +5063,51 @@
   <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:B1"/>
       <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="30" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>259</v>
@@ -5125,7 +5125,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="6">
         <v>43894</v>
@@ -5143,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="6">
         <v>43895</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="6">
         <v>43896</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="6">
         <v>43897</v>
@@ -5197,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="6">
         <v>43898</v>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="6">
         <v>43899</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="6">
         <v>43900</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
         <v>43901</v>
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="6">
         <v>43902</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="6">
         <v>43903</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="6">
         <v>43904</v>
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="6">
         <v>43905</v>
@@ -5341,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="6">
         <v>43906</v>
@@ -5359,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="6">
         <v>43907</v>
@@ -5377,7 +5377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="6">
         <v>43908</v>
@@ -5395,7 +5395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="6">
         <v>43909</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="6">
         <v>43910</v>
@@ -5431,7 +5431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="6">
         <v>43911</v>
@@ -5449,7 +5449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="6">
         <v>43912</v>
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="6">
         <v>43913</v>
@@ -5485,7 +5485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="6">
         <v>43914</v>
@@ -5503,7 +5503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="6">
         <v>43915</v>
@@ -5521,7 +5521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>263</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>263</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>263</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>263</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>263</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>263</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>263</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>263</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>263</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>263</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>263</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>263</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>263</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>263</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>263</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>263</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>263</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>263</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>263</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>263</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>263</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>263</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>263</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>263</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>263</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>263</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>263</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>263</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>263</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>263</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>263</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>263</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>263</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>263</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>263</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>263</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>263</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>263</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>263</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>263</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>263</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>263</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>263</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>263</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>263</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>263</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>263</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>263</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>263</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>263</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>263</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>263</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>263</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>263</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>263</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>263</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>263</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>263</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>263</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>263</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>263</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>263</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>263</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>263</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>263</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>263</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>263</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>263</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>263</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>263</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>263</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>263</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>263</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>263</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>263</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>263</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>263</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>263</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>263</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>263</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>263</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>263</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>264</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>263</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>263</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>263</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>263</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>263</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>263</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>263</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>263</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>263</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>263</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>263</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>263</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>263</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>263</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>263</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>263</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>263</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>263</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>263</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>263</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>263</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>263</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>263</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>263</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>263</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>263</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>263</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="6">
         <v>44026</v>
@@ -7739,7 +7739,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>266</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>263</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>267</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="6">
         <v>44030</v>
@@ -7817,7 +7817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="6">
         <v>44031</v>
@@ -7835,7 +7835,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="6">
         <v>44032</v>
@@ -7853,7 +7853,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="6">
         <v>44033</v>
@@ -7871,7 +7871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="6">
         <v>44034</v>
@@ -7889,7 +7889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="6">
         <v>44035</v>
@@ -7907,7 +7907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="6">
         <v>44036</v>
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>335</v>
       </c>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="6">
         <v>44038</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>263</v>
       </c>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="F150" s="4"/>
     </row>
-    <row r="152" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>257</v>
       </c>
@@ -7981,7 +7981,7 @@
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
     </row>
-    <row r="153" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>336</v>
       </c>
@@ -7991,7 +7991,7 @@
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
     </row>
-    <row r="154" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>337</v>
       </c>
@@ -8001,7 +8001,7 @@
       <c r="E154" s="19"/>
       <c r="F154" s="19"/>
     </row>
-    <row r="155" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>338</v>
       </c>
@@ -8011,7 +8011,7 @@
       <c r="E155" s="19"/>
       <c r="F155" s="19"/>
     </row>
-    <row r="156" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>339</v>
       </c>
@@ -8021,22 +8021,22 @@
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
     </row>
-    <row r="157" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="20" t="s">
         <v>343</v>
       </c>
@@ -8062,19 +8062,19 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>269</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>229107.20000000001</v>
       </c>
@@ -8090,11 +8090,11 @@
         <v>146836</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8111,12 +8111,12 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
@@ -8125,19 +8125,19 @@
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>259</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43925</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43926</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43927</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43928</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43929</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43930</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43931</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43932</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43933</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43934</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43935</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43936</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43937</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43938</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43939</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43940</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43941</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43942</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43943</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43944</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43945</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43946</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>43947</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43948</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43949</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43950</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43951</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43952</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43953</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43954</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43955</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43956</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43957</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43958</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43959</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43960</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43961</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43962</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43963</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43964</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43965</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43966</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43967</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>27025</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>43968</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>25614</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>43969</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>28188</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>43970</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>29538</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>43971</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>26116</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>43972</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>25307</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>43973</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>26921</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>43974</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>27495</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>43975</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>27583</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>43976</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>26152</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>43977</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>28329</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>43978</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>27374</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>43979</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>27080</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>43980</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>27573</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>43981</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>26265</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>43982</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>26734</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>43983</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>43984</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>24862</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>43985</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>43986</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>26422</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>43987</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>25963</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>43988</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>23452</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>43989</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>26058</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>43990</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>27495</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>43991</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>26396</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>43992</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>28289</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>43993</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>27883</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>43994</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>27883</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>43995</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>31999</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>43996</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>29707</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>43997</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>30411</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>43998</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>31484</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>43999</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>30235</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>44000</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>29542</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>44001</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>31212</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>44002</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>35311</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>44003</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>35904</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>44004</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>38384</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>44005</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>40458</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>44006</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>39357</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>44007</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>42610</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>44008</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>44009</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>38499</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>44010</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>41650</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>44011</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>42034</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>44012</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>44013</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>48359</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>44014</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>48250</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>44015</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>52847</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>44016</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>54069</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>44017</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>52141</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>44018</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>52846</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>44019</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>50285</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>44020</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>50342</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>44021</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>55851</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>44022</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>52986</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>44023</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>53170</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>44024</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>55164</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>44025</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>55563</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>44026</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>56216</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>44027</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>56764</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>44028</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>55457</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>44029</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>60446</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>44030</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>63333</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>44031</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>64285</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>44032</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>64156</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>44033</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>66758</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>44034</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>67484</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>44035</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>67567</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>44036</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>67405</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>44037</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>64412</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>44038</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>65260</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>44039</v>
       </c>
@@ -11153,29 +11153,29 @@
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="31" t="s">
+    <row r="119" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="29"/>
-    </row>
-    <row r="120" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="31" t="s">
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+    </row>
+    <row r="120" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="29"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11198,19 +11198,19 @@
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>283</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>285</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>116670</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>286</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>3598151</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>287</v>
       </c>
@@ -11242,11 +11242,11 @@
         <v>3714821</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11268,19 +11268,19 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>290</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>291</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>235797</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>292</v>
       </c>
@@ -11304,11 +11304,11 @@
         <v>10921</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11328,18 +11328,18 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+    <col min="1" max="1" width="64.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.4" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:2" ht="12.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.35">
+      <c r="B1" s="31"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>345</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>346</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>9781</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>347</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>54271</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>348</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>12723</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>349</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>350</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>6073</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="69.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>351</v>
       </c>
@@ -11410,21 +11410,21 @@
       <selection pane="bottomLeft" activeCell="A120" sqref="A120:C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>294</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>55</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>56</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>58</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>59</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>61</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>62</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>63</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>64</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>65</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>66</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>67</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>68</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>69</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>70</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>71</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>72</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>73</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>74</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>75</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>76</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>77</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>78</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>79</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>80</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>81</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>82</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>83</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>4739</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>84</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>5102</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>85</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>5523</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>86</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>5497</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>87</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>5913</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>88</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>6533</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>89</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>90</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>7382</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>91</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>7652</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>92</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>7890</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>93</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>8181</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>94</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>8698</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>95</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>9286</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>96</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>9610</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>97</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>9689</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>98</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>99</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>10083</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>100</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>10410</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>101</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>10405</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>102</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>10569</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>103</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>10471</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>104</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>10457</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>105</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>10632</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>106</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>10658</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>107</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>10592</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>108</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>10569</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>109</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>10848</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>110</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>10893</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>111</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>8858</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>112</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>10036</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>113</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>9827</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>114</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>10075</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>115</v>
       </c>
@@ -12700,12 +12700,12 @@
         <v>9781</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="127.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="32" t="s">
+    <row r="120" spans="1:3" ht="127" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12727,21 +12727,21 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-    </row>
-    <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>297</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>300</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>0.41540083080000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>301</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>1.8197036393999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>302</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>4.7027094054000003</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>303</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>18.925537851000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>304</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>19.133238265999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>305</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>18.048236096</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>306</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>16.783433566999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>307</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>6.6185132370000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>308</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>4.7492094984</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>309</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>2.9419058838000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>310</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>2.0708041416</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>311</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>3.7262074524000002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>312</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>6.5100130199999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>256</v>
       </c>
@@ -12906,26 +12906,26 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
